--- a/prep/HAB/hab_watersheds_fenced.xlsx
+++ b/prep/HAB/hab_watersheds_fenced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2325" windowWidth="18195" windowHeight="7755"/>
+    <workbookView xWindow="8430" yWindow="2040" windowWidth="18195" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,8 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
